--- a/Prototypes/Agroforestry/OdhiamboObserved.xlsx
+++ b/Prototypes/Agroforestry/OdhiamboObserved.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="OBSCrop" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="26">
   <si>
     <t>Distance</t>
   </si>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -169,6 +169,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,24 +283,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111730048"/>
-        <c:axId val="122688640"/>
+        <c:axId val="90303488"/>
+        <c:axId val="97283456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111730048"/>
+        <c:axId val="90303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122688640"/>
+        <c:crossAx val="97283456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122688640"/>
+        <c:axId val="97283456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,7 +308,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111730048"/>
+        <c:crossAx val="90303488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -321,7 +322,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -648,16 +649,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -742,7 +743,7 @@
         <v>0.14018700000000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="1">G3*1000/10</f>
+        <f t="shared" ref="H3:H33" si="1">G3*1000/10</f>
         <v>14.018700000000001</v>
       </c>
       <c r="L3" s="2"/>
@@ -1067,6 +1068,384 @@
       <c r="H17">
         <f t="shared" si="1"/>
         <v>260.37700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E18">
+        <v>5.2908499999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F23" si="2">E18/100*4</f>
+        <v>0.21163399999999999</v>
+      </c>
+      <c r="G18">
+        <v>2.8037400000000001E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.8037400000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E19">
+        <v>7.6198899999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3047956</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4.4408900000000002E-16</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.4408899999999999E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E20">
+        <v>24.997900000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99991600000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.18224299999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>18.224299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E21">
+        <v>45.775500000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8310200000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.51869200000000004</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>51.869199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E22">
+        <v>57.329500000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.29318</v>
+      </c>
+      <c r="G22">
+        <v>1.06542</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>106.542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35269</v>
+      </c>
+      <c r="E23">
+        <v>65.483900000000006</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6193560000000002</v>
+      </c>
+      <c r="G23">
+        <v>1.34579</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>134.57900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>35269</v>
+      </c>
+      <c r="G24">
+        <v>1.4859800000000001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>148.59800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>35269</v>
+      </c>
+      <c r="G25">
+        <v>1.71028</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>171.02799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G26">
+        <v>8.4905700000000001E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>8.49057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G27">
+        <v>0.16981099999999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>16.981099999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G28">
+        <v>0.53773599999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>53.773600000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G29">
+        <v>0.99056599999999995</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>99.056599999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G30">
+        <v>1.35849</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>135.84899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G31">
+        <v>2.0518900000000002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>205.18900000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G32">
+        <v>2.3349099999999998</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>233.49099999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>35640</v>
+      </c>
+      <c r="G33">
+        <v>2.53302</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>253.30199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1331,11 +1710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F862"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F862"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -19451,99 +19830,99 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="29" width="9" customWidth="1"/>
-    <col min="30" max="36" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="9" customWidth="1"/>
-    <col min="39" max="39" width="8.77734375" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1"/>
     <col min="40" max="41" width="9" customWidth="1"/>
-    <col min="42" max="52" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="9" customWidth="1"/>
-    <col min="57" max="67" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="57" max="67" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="68" max="70" width="9" customWidth="1"/>
-    <col min="71" max="77" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="77" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="78" max="81" width="9" customWidth="1"/>
-    <col min="82" max="89" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.77734375" customWidth="1"/>
+    <col min="82" max="89" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.7109375" customWidth="1"/>
     <col min="91" max="94" width="9" customWidth="1"/>
-    <col min="95" max="105" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="105" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="106" max="109" width="9" customWidth="1"/>
-    <col min="110" max="120" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="121" max="130" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="132" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="133" max="137" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="138" max="140" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="141" max="152" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="110" max="120" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="130" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="137" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="152" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="9" customWidth="1"/>
-    <col min="154" max="162" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="154" max="162" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="163" max="166" width="9" customWidth="1"/>
-    <col min="167" max="173" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="167" max="173" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="174" max="179" width="9" customWidth="1"/>
-    <col min="180" max="190" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="180" max="190" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="191" max="194" width="9" customWidth="1"/>
-    <col min="195" max="200" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="195" max="200" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="201" max="204" width="9" customWidth="1"/>
-    <col min="205" max="205" width="8.77734375" customWidth="1"/>
-    <col min="206" max="216" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="8.7109375" customWidth="1"/>
+    <col min="206" max="216" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="217" max="219" width="9" customWidth="1"/>
-    <col min="220" max="228" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="220" max="228" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="229" max="232" width="9" customWidth="1"/>
-    <col min="233" max="239" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="233" max="239" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="240" max="241" width="9" customWidth="1"/>
-    <col min="242" max="242" width="8.77734375" customWidth="1"/>
+    <col min="242" max="242" width="8.7109375" customWidth="1"/>
     <col min="243" max="244" width="9" customWidth="1"/>
-    <col min="245" max="250" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.77734375" customWidth="1"/>
+    <col min="245" max="250" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.7109375" customWidth="1"/>
     <col min="252" max="256" width="9" customWidth="1"/>
-    <col min="257" max="270" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="271" max="279" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="282" max="290" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="291" max="296" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="297" max="305" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="257" max="270" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="271" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="282" max="290" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="291" max="296" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="297" max="305" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="306" max="309" width="9" customWidth="1"/>
-    <col min="310" max="321" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="310" max="321" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="322" max="324" width="9" customWidth="1"/>
-    <col min="325" max="332" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="325" max="332" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="333" max="335" width="9" customWidth="1"/>
-    <col min="336" max="336" width="8.77734375" customWidth="1"/>
-    <col min="337" max="341" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="8.7109375" customWidth="1"/>
+    <col min="337" max="341" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="342" max="344" width="9" customWidth="1"/>
-    <col min="345" max="351" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="345" max="351" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="352" max="352" width="9" customWidth="1"/>
-    <col min="353" max="353" width="8.77734375" customWidth="1"/>
+    <col min="353" max="353" width="8.7109375" customWidth="1"/>
     <col min="354" max="355" width="9" customWidth="1"/>
-    <col min="356" max="364" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="356" max="364" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="365" max="366" width="9" customWidth="1"/>
-    <col min="367" max="373" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="8.77734375" customWidth="1"/>
+    <col min="367" max="373" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="8.7109375" customWidth="1"/>
     <col min="375" max="380" width="9" customWidth="1"/>
-    <col min="381" max="391" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="381" max="391" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="392" max="392" width="9" customWidth="1"/>
-    <col min="393" max="393" width="8.77734375" customWidth="1"/>
+    <col min="393" max="393" width="8.7109375" customWidth="1"/>
     <col min="394" max="394" width="9" customWidth="1"/>
-    <col min="395" max="403" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="395" max="403" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="404" max="406" width="9" customWidth="1"/>
-    <col min="407" max="416" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="417" max="426" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="427" max="430" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="431" max="449" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="407" max="416" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="417" max="426" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="427" max="430" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="431" max="449" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="450" max="450" width="9" customWidth="1"/>
-    <col min="451" max="451" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -42380,85 +42759,85 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" customWidth="1"/>
-    <col min="15" max="19" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="21" width="9" customWidth="1"/>
-    <col min="22" max="28" width="9.77734375" customWidth="1"/>
+    <col min="22" max="28" width="9.7109375" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="35" width="9.77734375" customWidth="1"/>
+    <col min="31" max="35" width="9.7109375" customWidth="1"/>
     <col min="36" max="37" width="9" customWidth="1"/>
-    <col min="38" max="42" width="9.77734375" customWidth="1"/>
+    <col min="38" max="42" width="9.7109375" customWidth="1"/>
     <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="44" max="49" width="9.77734375" customWidth="1"/>
+    <col min="44" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="55" width="9.77734375" customWidth="1"/>
+    <col min="51" max="55" width="9.7109375" customWidth="1"/>
     <col min="56" max="57" width="9" customWidth="1"/>
-    <col min="58" max="58" width="8.77734375" customWidth="1"/>
+    <col min="58" max="58" width="8.7109375" customWidth="1"/>
     <col min="59" max="59" width="9" customWidth="1"/>
-    <col min="60" max="62" width="9.77734375" customWidth="1"/>
+    <col min="60" max="62" width="9.7109375" customWidth="1"/>
     <col min="63" max="64" width="9" customWidth="1"/>
-    <col min="65" max="68" width="9.77734375" customWidth="1"/>
-    <col min="69" max="74" width="10.77734375" customWidth="1"/>
-    <col min="75" max="77" width="9.77734375" customWidth="1"/>
-    <col min="78" max="78" width="10.77734375" customWidth="1"/>
-    <col min="79" max="81" width="9.77734375" customWidth="1"/>
-    <col min="82" max="86" width="10.77734375" customWidth="1"/>
+    <col min="65" max="68" width="9.7109375" customWidth="1"/>
+    <col min="69" max="74" width="10.7109375" customWidth="1"/>
+    <col min="75" max="77" width="9.7109375" customWidth="1"/>
+    <col min="78" max="78" width="10.7109375" customWidth="1"/>
+    <col min="79" max="81" width="9.7109375" customWidth="1"/>
+    <col min="82" max="86" width="10.7109375" customWidth="1"/>
     <col min="87" max="87" width="9" customWidth="1"/>
-    <col min="88" max="94" width="9.77734375" customWidth="1"/>
+    <col min="88" max="94" width="9.7109375" customWidth="1"/>
     <col min="95" max="98" width="9" customWidth="1"/>
-    <col min="99" max="99" width="8.77734375" customWidth="1"/>
-    <col min="100" max="109" width="9.77734375" customWidth="1"/>
+    <col min="99" max="99" width="8.7109375" customWidth="1"/>
+    <col min="100" max="109" width="9.7109375" customWidth="1"/>
     <col min="110" max="111" width="9" customWidth="1"/>
-    <col min="112" max="115" width="9.77734375" customWidth="1"/>
+    <col min="112" max="115" width="9.7109375" customWidth="1"/>
     <col min="116" max="117" width="9" customWidth="1"/>
-    <col min="118" max="118" width="8.77734375" customWidth="1"/>
-    <col min="119" max="123" width="9.77734375" customWidth="1"/>
+    <col min="118" max="118" width="8.7109375" customWidth="1"/>
+    <col min="119" max="123" width="9.7109375" customWidth="1"/>
     <col min="124" max="124" width="9" customWidth="1"/>
-    <col min="125" max="127" width="9.77734375" customWidth="1"/>
+    <col min="125" max="127" width="9.7109375" customWidth="1"/>
     <col min="128" max="131" width="9" customWidth="1"/>
-    <col min="132" max="133" width="9.77734375" customWidth="1"/>
-    <col min="134" max="134" width="8.77734375" customWidth="1"/>
+    <col min="132" max="133" width="9.7109375" customWidth="1"/>
+    <col min="134" max="134" width="8.7109375" customWidth="1"/>
     <col min="135" max="135" width="9" customWidth="1"/>
-    <col min="136" max="137" width="9.77734375" customWidth="1"/>
+    <col min="136" max="137" width="9.7109375" customWidth="1"/>
     <col min="138" max="140" width="9" customWidth="1"/>
-    <col min="141" max="145" width="9.77734375" customWidth="1"/>
-    <col min="146" max="148" width="10.77734375" customWidth="1"/>
-    <col min="149" max="150" width="9.77734375" customWidth="1"/>
-    <col min="151" max="156" width="10.77734375" customWidth="1"/>
-    <col min="157" max="158" width="9.77734375" customWidth="1"/>
-    <col min="159" max="163" width="10.77734375" customWidth="1"/>
+    <col min="141" max="145" width="9.7109375" customWidth="1"/>
+    <col min="146" max="148" width="10.7109375" customWidth="1"/>
+    <col min="149" max="150" width="9.7109375" customWidth="1"/>
+    <col min="151" max="156" width="10.7109375" customWidth="1"/>
+    <col min="157" max="158" width="9.7109375" customWidth="1"/>
+    <col min="159" max="163" width="10.7109375" customWidth="1"/>
     <col min="164" max="164" width="9" customWidth="1"/>
-    <col min="165" max="165" width="8.77734375" customWidth="1"/>
-    <col min="166" max="169" width="9.77734375" customWidth="1"/>
+    <col min="165" max="165" width="8.7109375" customWidth="1"/>
+    <col min="166" max="169" width="9.7109375" customWidth="1"/>
     <col min="170" max="170" width="9" customWidth="1"/>
-    <col min="171" max="171" width="9.77734375" customWidth="1"/>
+    <col min="171" max="171" width="9.7109375" customWidth="1"/>
     <col min="172" max="173" width="9" customWidth="1"/>
-    <col min="174" max="175" width="9.77734375" customWidth="1"/>
+    <col min="174" max="175" width="9.7109375" customWidth="1"/>
     <col min="176" max="176" width="9" customWidth="1"/>
-    <col min="177" max="180" width="9.77734375" customWidth="1"/>
+    <col min="177" max="180" width="9.7109375" customWidth="1"/>
     <col min="181" max="185" width="9" customWidth="1"/>
-    <col min="186" max="191" width="9.77734375" customWidth="1"/>
-    <col min="192" max="192" width="8.77734375" customWidth="1"/>
+    <col min="186" max="191" width="9.7109375" customWidth="1"/>
+    <col min="192" max="192" width="8.7109375" customWidth="1"/>
     <col min="193" max="193" width="9" customWidth="1"/>
-    <col min="194" max="198" width="9.77734375" customWidth="1"/>
+    <col min="194" max="198" width="9.7109375" customWidth="1"/>
     <col min="199" max="199" width="9" customWidth="1"/>
-    <col min="200" max="207" width="9.77734375" customWidth="1"/>
+    <col min="200" max="207" width="9.7109375" customWidth="1"/>
     <col min="208" max="209" width="9" customWidth="1"/>
-    <col min="210" max="217" width="9.77734375" customWidth="1"/>
-    <col min="218" max="231" width="10.77734375" customWidth="1"/>
-    <col min="232" max="232" width="9.77734375" customWidth="1"/>
-    <col min="233" max="234" width="10.77734375" customWidth="1"/>
-    <col min="235" max="236" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="210" max="217" width="9.7109375" customWidth="1"/>
+    <col min="218" max="231" width="10.7109375" customWidth="1"/>
+    <col min="232" max="232" width="9.7109375" customWidth="1"/>
+    <col min="233" max="234" width="10.7109375" customWidth="1"/>
+    <col min="235" max="236" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -60925,171 +61304,171 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="12" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="25" width="9.77734375" customWidth="1"/>
+    <col min="19" max="25" width="9.7109375" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="33" width="9.77734375" customWidth="1"/>
+    <col min="31" max="33" width="9.7109375" customWidth="1"/>
     <col min="34" max="34" width="10" customWidth="1"/>
-    <col min="35" max="39" width="9.77734375" customWidth="1"/>
+    <col min="35" max="39" width="9.7109375" customWidth="1"/>
     <col min="40" max="42" width="9" customWidth="1"/>
     <col min="43" max="43" width="10" customWidth="1"/>
-    <col min="44" max="49" width="9.77734375" customWidth="1"/>
+    <col min="44" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="12" customWidth="1"/>
     <col min="51" max="53" width="9" customWidth="1"/>
     <col min="54" max="54" width="10" customWidth="1"/>
-    <col min="55" max="65" width="9.77734375" customWidth="1"/>
+    <col min="55" max="65" width="9.7109375" customWidth="1"/>
     <col min="66" max="66" width="10" customWidth="1"/>
-    <col min="67" max="67" width="9.77734375" customWidth="1"/>
+    <col min="67" max="67" width="9.7109375" customWidth="1"/>
     <col min="68" max="68" width="9" customWidth="1"/>
-    <col min="69" max="69" width="8.77734375" customWidth="1"/>
+    <col min="69" max="69" width="8.7109375" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="80" width="9.77734375" customWidth="1"/>
+    <col min="71" max="80" width="9.7109375" customWidth="1"/>
     <col min="81" max="81" width="10" customWidth="1"/>
     <col min="82" max="82" width="9" customWidth="1"/>
     <col min="83" max="83" width="11" customWidth="1"/>
     <col min="84" max="84" width="9" customWidth="1"/>
-    <col min="85" max="93" width="9.77734375" customWidth="1"/>
+    <col min="85" max="93" width="9.7109375" customWidth="1"/>
     <col min="94" max="95" width="9" customWidth="1"/>
-    <col min="96" max="96" width="8.77734375" customWidth="1"/>
-    <col min="97" max="98" width="9.77734375" customWidth="1"/>
+    <col min="96" max="96" width="8.7109375" customWidth="1"/>
+    <col min="97" max="98" width="9.7109375" customWidth="1"/>
     <col min="99" max="99" width="10" customWidth="1"/>
-    <col min="100" max="104" width="9.77734375" customWidth="1"/>
+    <col min="100" max="104" width="9.7109375" customWidth="1"/>
     <col min="105" max="108" width="9" customWidth="1"/>
     <col min="109" max="109" width="10" customWidth="1"/>
-    <col min="110" max="117" width="9.77734375" customWidth="1"/>
+    <col min="110" max="117" width="9.7109375" customWidth="1"/>
     <col min="118" max="118" width="10" customWidth="1"/>
-    <col min="119" max="120" width="9.77734375" customWidth="1"/>
-    <col min="121" max="129" width="10.77734375" customWidth="1"/>
+    <col min="119" max="120" width="9.7109375" customWidth="1"/>
+    <col min="121" max="129" width="10.7109375" customWidth="1"/>
     <col min="130" max="130" width="12" customWidth="1"/>
-    <col min="131" max="131" width="10.77734375" customWidth="1"/>
-    <col min="132" max="134" width="9.77734375" customWidth="1"/>
+    <col min="131" max="131" width="10.7109375" customWidth="1"/>
+    <col min="132" max="134" width="9.7109375" customWidth="1"/>
     <col min="135" max="135" width="10" customWidth="1"/>
-    <col min="136" max="142" width="10.77734375" customWidth="1"/>
+    <col min="136" max="142" width="10.7109375" customWidth="1"/>
     <col min="143" max="143" width="12" customWidth="1"/>
-    <col min="144" max="144" width="9.77734375" customWidth="1"/>
-    <col min="145" max="148" width="10.77734375" customWidth="1"/>
+    <col min="144" max="144" width="9.7109375" customWidth="1"/>
+    <col min="145" max="148" width="10.7109375" customWidth="1"/>
     <col min="149" max="149" width="12" customWidth="1"/>
-    <col min="150" max="152" width="10.77734375" customWidth="1"/>
+    <col min="150" max="152" width="10.7109375" customWidth="1"/>
     <col min="153" max="153" width="9" customWidth="1"/>
-    <col min="154" max="154" width="8.77734375" customWidth="1"/>
+    <col min="154" max="154" width="8.7109375" customWidth="1"/>
     <col min="155" max="155" width="10" customWidth="1"/>
     <col min="156" max="156" width="9" customWidth="1"/>
     <col min="157" max="157" width="10" customWidth="1"/>
-    <col min="158" max="162" width="9.77734375" customWidth="1"/>
+    <col min="158" max="162" width="9.7109375" customWidth="1"/>
     <col min="163" max="164" width="10" customWidth="1"/>
-    <col min="165" max="166" width="9.77734375" customWidth="1"/>
+    <col min="165" max="166" width="9.7109375" customWidth="1"/>
     <col min="167" max="172" width="9" customWidth="1"/>
-    <col min="173" max="183" width="9.77734375" customWidth="1"/>
+    <col min="173" max="183" width="9.7109375" customWidth="1"/>
     <col min="184" max="185" width="10" customWidth="1"/>
     <col min="186" max="188" width="9" customWidth="1"/>
     <col min="189" max="189" width="10" customWidth="1"/>
-    <col min="190" max="193" width="9.77734375" customWidth="1"/>
+    <col min="190" max="193" width="9.7109375" customWidth="1"/>
     <col min="194" max="194" width="12" customWidth="1"/>
-    <col min="195" max="195" width="9.77734375" customWidth="1"/>
+    <col min="195" max="195" width="9.7109375" customWidth="1"/>
     <col min="196" max="196" width="10" customWidth="1"/>
     <col min="197" max="197" width="9" customWidth="1"/>
     <col min="198" max="198" width="10" customWidth="1"/>
-    <col min="199" max="206" width="9.77734375" customWidth="1"/>
+    <col min="199" max="206" width="9.7109375" customWidth="1"/>
     <col min="207" max="207" width="10" customWidth="1"/>
     <col min="208" max="209" width="9" customWidth="1"/>
     <col min="210" max="210" width="10" customWidth="1"/>
-    <col min="211" max="212" width="9.77734375" customWidth="1"/>
+    <col min="211" max="212" width="9.7109375" customWidth="1"/>
     <col min="213" max="213" width="10" customWidth="1"/>
-    <col min="214" max="218" width="9.77734375" customWidth="1"/>
+    <col min="214" max="218" width="9.7109375" customWidth="1"/>
     <col min="219" max="219" width="10" customWidth="1"/>
     <col min="220" max="224" width="9" customWidth="1"/>
-    <col min="225" max="227" width="9.77734375" customWidth="1"/>
-    <col min="228" max="231" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="9.7109375" customWidth="1"/>
+    <col min="228" max="231" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="10" bestFit="1" customWidth="1"/>
-    <col min="233" max="235" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="233" max="235" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" customWidth="1"/>
     <col min="237" max="239" width="9" customWidth="1"/>
     <col min="240" max="241" width="10" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="10" bestFit="1" customWidth="1"/>
     <col min="251" max="252" width="9" customWidth="1"/>
     <col min="253" max="253" width="10" customWidth="1"/>
-    <col min="254" max="255" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="10" bestFit="1" customWidth="1"/>
-    <col min="257" max="263" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="257" max="263" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="10" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.77734375" customWidth="1"/>
+    <col min="265" max="265" width="8.7109375" customWidth="1"/>
     <col min="266" max="266" width="10" customWidth="1"/>
-    <col min="267" max="269" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="267" max="269" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="275" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="271" max="275" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="276" max="276" width="10" bestFit="1" customWidth="1"/>
-    <col min="277" max="278" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="277" max="278" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="12" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="282" max="282" width="12" bestFit="1" customWidth="1"/>
-    <col min="283" max="286" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="287" max="290" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="291" max="298" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="283" max="286" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="287" max="290" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="291" max="298" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10" bestFit="1" customWidth="1"/>
-    <col min="301" max="304" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="305" max="312" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="8.77734375" customWidth="1"/>
+    <col min="301" max="304" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="305" max="312" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="8.7109375" customWidth="1"/>
     <col min="314" max="315" width="9" customWidth="1"/>
     <col min="316" max="316" width="12" customWidth="1"/>
     <col min="317" max="317" width="9" customWidth="1"/>
-    <col min="318" max="327" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="318" max="327" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="328" max="330" width="9" customWidth="1"/>
-    <col min="331" max="331" width="8.77734375" customWidth="1"/>
+    <col min="331" max="331" width="8.7109375" customWidth="1"/>
     <col min="332" max="332" width="9" customWidth="1"/>
-    <col min="333" max="340" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="333" max="340" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="341" max="341" width="10" customWidth="1"/>
-    <col min="342" max="342" width="8.77734375" customWidth="1"/>
-    <col min="343" max="343" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="8.7109375" customWidth="1"/>
+    <col min="343" max="343" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="344" max="344" width="10" bestFit="1" customWidth="1"/>
-    <col min="345" max="352" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="345" max="352" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="353" max="355" width="9" customWidth="1"/>
-    <col min="356" max="362" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="356" max="362" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="363" max="363" width="9" customWidth="1"/>
-    <col min="364" max="364" width="8.77734375" customWidth="1"/>
+    <col min="364" max="364" width="8.7109375" customWidth="1"/>
     <col min="365" max="365" width="10" customWidth="1"/>
     <col min="366" max="366" width="9" customWidth="1"/>
-    <col min="367" max="375" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="367" max="375" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="376" max="376" width="10" customWidth="1"/>
-    <col min="377" max="384" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="377" max="384" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="385" max="385" width="9" customWidth="1"/>
     <col min="386" max="386" width="10" customWidth="1"/>
     <col min="387" max="388" width="9" customWidth="1"/>
-    <col min="389" max="390" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="389" max="390" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="391" max="391" width="10" bestFit="1" customWidth="1"/>
-    <col min="392" max="400" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="392" max="400" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="401" max="407" width="9" customWidth="1"/>
-    <col min="408" max="419" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="408" max="419" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="420" max="425" width="9" customWidth="1"/>
-    <col min="426" max="429" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="426" max="429" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="430" max="431" width="10" bestFit="1" customWidth="1"/>
-    <col min="432" max="434" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="432" max="434" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="435" max="435" width="10" bestFit="1" customWidth="1"/>
-    <col min="436" max="437" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="436" max="437" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="438" max="438" width="10" bestFit="1" customWidth="1"/>
-    <col min="439" max="440" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="441" max="450" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="451" max="453" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="454" max="478" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="439" max="440" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="441" max="450" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="451" max="453" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="454" max="478" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="479" max="479" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Prototypes/Agroforestry/OdhiamboObserved.xlsx
+++ b/Prototypes/Agroforestry/OdhiamboObserved.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="OBSCrop" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="27">
   <si>
     <t>Distance</t>
   </si>
@@ -98,6 +98,9 @@
   <si>
     <t>SW75cm</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,24 +287,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90303488"/>
-        <c:axId val="97283456"/>
+        <c:axId val="113537408"/>
+        <c:axId val="113538944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90303488"/>
+        <c:axId val="113537408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97283456"/>
+        <c:crossAx val="113538944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97283456"/>
+        <c:axId val="113538944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,21 +312,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90303488"/>
+        <c:crossAx val="113537408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -649,19 +652,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -675,22 +679,25 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -703,23 +710,26 @@
       <c r="D2" s="2">
         <v>35269</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F2">
         <v>5.2908499999999998</v>
       </c>
-      <c r="F2" s="1">
-        <f>E2/100*4</f>
+      <c r="G2" s="1">
+        <f>F2/100*4</f>
         <v>0.21163399999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.8037400000000001E-2</v>
       </c>
-      <c r="H2">
-        <f>G2*1000/10</f>
+      <c r="I2">
+        <f>H2*1000/10</f>
         <v>2.8037400000000003</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -732,23 +742,26 @@
       <c r="D3" s="2">
         <v>35269</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F3">
         <v>14.4162</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="0">E3/100*4</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G7" si="0">F3/100*4</f>
         <v>0.57664800000000005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.14018700000000001</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H33" si="1">G3*1000/10</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I33" si="1">H3*1000/10</f>
         <v>14.018700000000001</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -761,22 +774,25 @@
       <c r="D4" s="2">
         <v>35269</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F4">
         <v>36.1633</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1.4465319999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.476636</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>47.663600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -789,22 +805,25 @@
       <c r="D5" s="2">
         <v>35269</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F5">
         <v>52.5732</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.1029279999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.925234</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>92.523400000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -817,22 +836,25 @@
       <c r="D6" s="2">
         <v>35269</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F6">
         <v>57.328099999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>2.2931240000000002</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.31776</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>131.77600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -845,22 +867,25 @@
       <c r="D7" s="2">
         <v>35269</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F7">
         <v>64.026200000000003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>2.561048</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.35981</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>135.98099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -873,15 +898,18 @@
       <c r="D8" s="2">
         <v>35269</v>
       </c>
-      <c r="G8">
+      <c r="E8" s="14">
+        <v>1996</v>
+      </c>
+      <c r="H8">
         <v>1.4859800000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>148.59800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -894,15 +922,18 @@
       <c r="D9" s="2">
         <v>35269</v>
       </c>
-      <c r="G9">
+      <c r="E9" s="14">
+        <v>1996</v>
+      </c>
+      <c r="H9">
         <v>1.6962600000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>169.626</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -915,15 +946,18 @@
       <c r="D10" s="2">
         <v>35640</v>
       </c>
-      <c r="G10">
+      <c r="E10" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H10">
         <v>9.9056599999999995E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>9.9056599999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -936,15 +970,18 @@
       <c r="D11" s="2">
         <v>35640</v>
       </c>
-      <c r="G11">
+      <c r="E11" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H11">
         <v>0.33962300000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>33.962299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -957,15 +994,18 @@
       <c r="D12" s="2">
         <v>35640</v>
       </c>
-      <c r="G12">
+      <c r="E12" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H12">
         <v>0.97641500000000003</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>97.641500000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -978,15 +1018,18 @@
       <c r="D13" s="2">
         <v>35640</v>
       </c>
-      <c r="G13">
+      <c r="E13" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H13">
         <v>1.69811</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>169.81099999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -999,15 +1042,18 @@
       <c r="D14" s="2">
         <v>35640</v>
       </c>
-      <c r="G14">
+      <c r="E14" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H14">
         <v>1.83962</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>183.96200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1020,15 +1066,18 @@
       <c r="D15" s="2">
         <v>35640</v>
       </c>
-      <c r="G15">
+      <c r="E15" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H15">
         <v>2.1226400000000001</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>212.26399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1041,15 +1090,18 @@
       <c r="D16" s="2">
         <v>35640</v>
       </c>
-      <c r="G16">
+      <c r="E16" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H16">
         <v>2.3207499999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>232.07499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1062,15 +1114,18 @@
       <c r="D17" s="2">
         <v>35640</v>
       </c>
-      <c r="G17">
+      <c r="E17" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H17">
         <v>2.6037699999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>260.37700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1083,22 +1138,25 @@
       <c r="D18" s="2">
         <v>35269</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F18">
         <v>5.2908499999999998</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F23" si="2">E18/100*4</f>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:G23" si="2">F18/100*4</f>
         <v>0.21163399999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.8037400000000001E-2</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>2.8037400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1111,22 +1169,25 @@
       <c r="D19" s="2">
         <v>35269</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F19">
         <v>7.6198899999999998</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>0.3047956</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H19" s="13">
         <v>4.4408900000000002E-16</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>4.4408899999999999E-14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1139,22 +1200,25 @@
       <c r="D20" s="2">
         <v>35269</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F20">
         <v>24.997900000000001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>0.99991600000000003</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.18224299999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>18.224299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1167,22 +1231,25 @@
       <c r="D21" s="2">
         <v>35269</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F21">
         <v>45.775500000000001</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>1.8310200000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.51869200000000004</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>51.869199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1195,22 +1262,25 @@
       <c r="D22" s="2">
         <v>35269</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F22">
         <v>57.329500000000003</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>2.29318</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.06542</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>106.542</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1223,22 +1293,25 @@
       <c r="D23" s="2">
         <v>35269</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
+        <v>1996</v>
+      </c>
+      <c r="F23">
         <v>65.483900000000006</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>2.6193560000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.34579</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>134.57900000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1251,15 +1324,18 @@
       <c r="D24" s="2">
         <v>35269</v>
       </c>
-      <c r="G24">
+      <c r="E24" s="14">
+        <v>1996</v>
+      </c>
+      <c r="H24">
         <v>1.4859800000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>148.59800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1272,15 +1348,18 @@
       <c r="D25" s="2">
         <v>35269</v>
       </c>
-      <c r="G25">
+      <c r="E25" s="14">
+        <v>1996</v>
+      </c>
+      <c r="H25">
         <v>1.71028</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>171.02799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1293,15 +1372,18 @@
       <c r="D26" s="2">
         <v>35640</v>
       </c>
-      <c r="G26">
+      <c r="E26" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H26">
         <v>8.4905700000000001E-2</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>8.49057</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1314,15 +1396,18 @@
       <c r="D27" s="2">
         <v>35640</v>
       </c>
-      <c r="G27">
+      <c r="E27" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H27">
         <v>0.16981099999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>16.981099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1335,15 +1420,18 @@
       <c r="D28" s="2">
         <v>35640</v>
       </c>
-      <c r="G28">
+      <c r="E28" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H28">
         <v>0.53773599999999999</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>53.773600000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1356,15 +1444,18 @@
       <c r="D29" s="2">
         <v>35640</v>
       </c>
-      <c r="G29">
+      <c r="E29" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H29">
         <v>0.99056599999999995</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>99.056599999999989</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1377,15 +1468,18 @@
       <c r="D30" s="2">
         <v>35640</v>
       </c>
-      <c r="G30">
+      <c r="E30" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H30">
         <v>1.35849</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>135.84899999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1398,15 +1492,18 @@
       <c r="D31" s="2">
         <v>35640</v>
       </c>
-      <c r="G31">
+      <c r="E31" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H31">
         <v>2.0518900000000002</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>205.18900000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1419,15 +1516,18 @@
       <c r="D32" s="2">
         <v>35640</v>
       </c>
-      <c r="G32">
+      <c r="E32" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H32">
         <v>2.3349099999999998</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>233.49099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1440,10 +1540,13 @@
       <c r="D33" s="2">
         <v>35640</v>
       </c>
-      <c r="G33">
+      <c r="E33" s="14">
+        <v>1997</v>
+      </c>
+      <c r="H33">
         <v>2.53302</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>253.30199999999999</v>
       </c>
@@ -1460,7 +1563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1714,7 +1817,7 @@
       <selection sqref="A1:F862"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -19830,99 +19933,99 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="29" width="9" customWidth="1"/>
-    <col min="30" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="9" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" customWidth="1"/>
     <col min="40" max="41" width="9" customWidth="1"/>
-    <col min="42" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="9" customWidth="1"/>
-    <col min="57" max="67" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="67" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="68" max="70" width="9" customWidth="1"/>
-    <col min="71" max="77" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="77" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="78" max="81" width="9" customWidth="1"/>
-    <col min="82" max="89" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.7109375" customWidth="1"/>
+    <col min="82" max="89" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.6640625" customWidth="1"/>
     <col min="91" max="94" width="9" customWidth="1"/>
-    <col min="95" max="105" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="105" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="106" max="109" width="9" customWidth="1"/>
-    <col min="110" max="120" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="130" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="132" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="137" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="140" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="141" max="152" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="120" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="130" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="137" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="152" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="9" customWidth="1"/>
-    <col min="154" max="162" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="162" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="163" max="166" width="9" customWidth="1"/>
-    <col min="167" max="173" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="167" max="173" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="174" max="179" width="9" customWidth="1"/>
-    <col min="180" max="190" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="180" max="190" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="191" max="194" width="9" customWidth="1"/>
-    <col min="195" max="200" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="200" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="201" max="204" width="9" customWidth="1"/>
-    <col min="205" max="205" width="8.7109375" customWidth="1"/>
-    <col min="206" max="216" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="8.6640625" customWidth="1"/>
+    <col min="206" max="216" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="217" max="219" width="9" customWidth="1"/>
-    <col min="220" max="228" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="220" max="228" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="229" max="232" width="9" customWidth="1"/>
-    <col min="233" max="239" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="239" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="240" max="241" width="9" customWidth="1"/>
-    <col min="242" max="242" width="8.7109375" customWidth="1"/>
+    <col min="242" max="242" width="8.6640625" customWidth="1"/>
     <col min="243" max="244" width="9" customWidth="1"/>
-    <col min="245" max="250" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.7109375" customWidth="1"/>
+    <col min="245" max="250" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.6640625" customWidth="1"/>
     <col min="252" max="256" width="9" customWidth="1"/>
-    <col min="257" max="270" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="271" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="282" max="290" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="291" max="296" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="297" max="305" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="257" max="270" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="271" max="279" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="282" max="290" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="291" max="296" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="297" max="305" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="306" max="309" width="9" customWidth="1"/>
-    <col min="310" max="321" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="310" max="321" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="322" max="324" width="9" customWidth="1"/>
-    <col min="325" max="332" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="325" max="332" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="333" max="335" width="9" customWidth="1"/>
-    <col min="336" max="336" width="8.7109375" customWidth="1"/>
-    <col min="337" max="341" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="8.6640625" customWidth="1"/>
+    <col min="337" max="341" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="342" max="344" width="9" customWidth="1"/>
-    <col min="345" max="351" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="351" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="352" max="352" width="9" customWidth="1"/>
-    <col min="353" max="353" width="8.7109375" customWidth="1"/>
+    <col min="353" max="353" width="8.6640625" customWidth="1"/>
     <col min="354" max="355" width="9" customWidth="1"/>
-    <col min="356" max="364" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="356" max="364" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="365" max="366" width="9" customWidth="1"/>
-    <col min="367" max="373" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="8.7109375" customWidth="1"/>
+    <col min="367" max="373" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="8.6640625" customWidth="1"/>
     <col min="375" max="380" width="9" customWidth="1"/>
-    <col min="381" max="391" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="381" max="391" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="392" max="392" width="9" customWidth="1"/>
-    <col min="393" max="393" width="8.7109375" customWidth="1"/>
+    <col min="393" max="393" width="8.6640625" customWidth="1"/>
     <col min="394" max="394" width="9" customWidth="1"/>
-    <col min="395" max="403" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="395" max="403" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="404" max="406" width="9" customWidth="1"/>
-    <col min="407" max="416" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="417" max="426" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="427" max="430" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="431" max="449" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="407" max="416" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="417" max="426" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="427" max="430" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="431" max="449" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="450" max="450" width="9" customWidth="1"/>
-    <col min="451" max="451" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -42759,85 +42862,85 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="19" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="19" width="9.6640625" customWidth="1"/>
     <col min="20" max="21" width="9" customWidth="1"/>
-    <col min="22" max="28" width="9.7109375" customWidth="1"/>
+    <col min="22" max="28" width="9.6640625" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="35" width="9.7109375" customWidth="1"/>
+    <col min="31" max="35" width="9.6640625" customWidth="1"/>
     <col min="36" max="37" width="9" customWidth="1"/>
-    <col min="38" max="42" width="9.7109375" customWidth="1"/>
+    <col min="38" max="42" width="9.6640625" customWidth="1"/>
     <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="44" max="49" width="9.7109375" customWidth="1"/>
+    <col min="44" max="49" width="9.6640625" customWidth="1"/>
     <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="55" width="9.7109375" customWidth="1"/>
+    <col min="51" max="55" width="9.6640625" customWidth="1"/>
     <col min="56" max="57" width="9" customWidth="1"/>
-    <col min="58" max="58" width="8.7109375" customWidth="1"/>
+    <col min="58" max="58" width="8.6640625" customWidth="1"/>
     <col min="59" max="59" width="9" customWidth="1"/>
-    <col min="60" max="62" width="9.7109375" customWidth="1"/>
+    <col min="60" max="62" width="9.6640625" customWidth="1"/>
     <col min="63" max="64" width="9" customWidth="1"/>
-    <col min="65" max="68" width="9.7109375" customWidth="1"/>
-    <col min="69" max="74" width="10.7109375" customWidth="1"/>
-    <col min="75" max="77" width="9.7109375" customWidth="1"/>
-    <col min="78" max="78" width="10.7109375" customWidth="1"/>
-    <col min="79" max="81" width="9.7109375" customWidth="1"/>
-    <col min="82" max="86" width="10.7109375" customWidth="1"/>
+    <col min="65" max="68" width="9.6640625" customWidth="1"/>
+    <col min="69" max="74" width="10.6640625" customWidth="1"/>
+    <col min="75" max="77" width="9.6640625" customWidth="1"/>
+    <col min="78" max="78" width="10.6640625" customWidth="1"/>
+    <col min="79" max="81" width="9.6640625" customWidth="1"/>
+    <col min="82" max="86" width="10.6640625" customWidth="1"/>
     <col min="87" max="87" width="9" customWidth="1"/>
-    <col min="88" max="94" width="9.7109375" customWidth="1"/>
+    <col min="88" max="94" width="9.6640625" customWidth="1"/>
     <col min="95" max="98" width="9" customWidth="1"/>
-    <col min="99" max="99" width="8.7109375" customWidth="1"/>
-    <col min="100" max="109" width="9.7109375" customWidth="1"/>
+    <col min="99" max="99" width="8.6640625" customWidth="1"/>
+    <col min="100" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="111" width="9" customWidth="1"/>
-    <col min="112" max="115" width="9.7109375" customWidth="1"/>
+    <col min="112" max="115" width="9.6640625" customWidth="1"/>
     <col min="116" max="117" width="9" customWidth="1"/>
-    <col min="118" max="118" width="8.7109375" customWidth="1"/>
-    <col min="119" max="123" width="9.7109375" customWidth="1"/>
+    <col min="118" max="118" width="8.6640625" customWidth="1"/>
+    <col min="119" max="123" width="9.6640625" customWidth="1"/>
     <col min="124" max="124" width="9" customWidth="1"/>
-    <col min="125" max="127" width="9.7109375" customWidth="1"/>
+    <col min="125" max="127" width="9.6640625" customWidth="1"/>
     <col min="128" max="131" width="9" customWidth="1"/>
-    <col min="132" max="133" width="9.7109375" customWidth="1"/>
-    <col min="134" max="134" width="8.7109375" customWidth="1"/>
+    <col min="132" max="133" width="9.6640625" customWidth="1"/>
+    <col min="134" max="134" width="8.6640625" customWidth="1"/>
     <col min="135" max="135" width="9" customWidth="1"/>
-    <col min="136" max="137" width="9.7109375" customWidth="1"/>
+    <col min="136" max="137" width="9.6640625" customWidth="1"/>
     <col min="138" max="140" width="9" customWidth="1"/>
-    <col min="141" max="145" width="9.7109375" customWidth="1"/>
-    <col min="146" max="148" width="10.7109375" customWidth="1"/>
-    <col min="149" max="150" width="9.7109375" customWidth="1"/>
-    <col min="151" max="156" width="10.7109375" customWidth="1"/>
-    <col min="157" max="158" width="9.7109375" customWidth="1"/>
-    <col min="159" max="163" width="10.7109375" customWidth="1"/>
+    <col min="141" max="145" width="9.6640625" customWidth="1"/>
+    <col min="146" max="148" width="10.6640625" customWidth="1"/>
+    <col min="149" max="150" width="9.6640625" customWidth="1"/>
+    <col min="151" max="156" width="10.6640625" customWidth="1"/>
+    <col min="157" max="158" width="9.6640625" customWidth="1"/>
+    <col min="159" max="163" width="10.6640625" customWidth="1"/>
     <col min="164" max="164" width="9" customWidth="1"/>
-    <col min="165" max="165" width="8.7109375" customWidth="1"/>
-    <col min="166" max="169" width="9.7109375" customWidth="1"/>
+    <col min="165" max="165" width="8.6640625" customWidth="1"/>
+    <col min="166" max="169" width="9.6640625" customWidth="1"/>
     <col min="170" max="170" width="9" customWidth="1"/>
-    <col min="171" max="171" width="9.7109375" customWidth="1"/>
+    <col min="171" max="171" width="9.6640625" customWidth="1"/>
     <col min="172" max="173" width="9" customWidth="1"/>
-    <col min="174" max="175" width="9.7109375" customWidth="1"/>
+    <col min="174" max="175" width="9.6640625" customWidth="1"/>
     <col min="176" max="176" width="9" customWidth="1"/>
-    <col min="177" max="180" width="9.7109375" customWidth="1"/>
+    <col min="177" max="180" width="9.6640625" customWidth="1"/>
     <col min="181" max="185" width="9" customWidth="1"/>
-    <col min="186" max="191" width="9.7109375" customWidth="1"/>
-    <col min="192" max="192" width="8.7109375" customWidth="1"/>
+    <col min="186" max="191" width="9.6640625" customWidth="1"/>
+    <col min="192" max="192" width="8.6640625" customWidth="1"/>
     <col min="193" max="193" width="9" customWidth="1"/>
-    <col min="194" max="198" width="9.7109375" customWidth="1"/>
+    <col min="194" max="198" width="9.6640625" customWidth="1"/>
     <col min="199" max="199" width="9" customWidth="1"/>
-    <col min="200" max="207" width="9.7109375" customWidth="1"/>
+    <col min="200" max="207" width="9.6640625" customWidth="1"/>
     <col min="208" max="209" width="9" customWidth="1"/>
-    <col min="210" max="217" width="9.7109375" customWidth="1"/>
-    <col min="218" max="231" width="10.7109375" customWidth="1"/>
-    <col min="232" max="232" width="9.7109375" customWidth="1"/>
-    <col min="233" max="234" width="10.7109375" customWidth="1"/>
-    <col min="235" max="236" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="217" width="9.6640625" customWidth="1"/>
+    <col min="218" max="231" width="10.6640625" customWidth="1"/>
+    <col min="232" max="232" width="9.6640625" customWidth="1"/>
+    <col min="233" max="234" width="10.6640625" customWidth="1"/>
+    <col min="235" max="236" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -61304,171 +61407,171 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="12" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="25" width="9.7109375" customWidth="1"/>
+    <col min="19" max="25" width="9.6640625" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="33" width="9.7109375" customWidth="1"/>
+    <col min="31" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="10" customWidth="1"/>
-    <col min="35" max="39" width="9.7109375" customWidth="1"/>
+    <col min="35" max="39" width="9.6640625" customWidth="1"/>
     <col min="40" max="42" width="9" customWidth="1"/>
     <col min="43" max="43" width="10" customWidth="1"/>
-    <col min="44" max="49" width="9.7109375" customWidth="1"/>
+    <col min="44" max="49" width="9.6640625" customWidth="1"/>
     <col min="50" max="50" width="12" customWidth="1"/>
     <col min="51" max="53" width="9" customWidth="1"/>
     <col min="54" max="54" width="10" customWidth="1"/>
-    <col min="55" max="65" width="9.7109375" customWidth="1"/>
+    <col min="55" max="65" width="9.6640625" customWidth="1"/>
     <col min="66" max="66" width="10" customWidth="1"/>
-    <col min="67" max="67" width="9.7109375" customWidth="1"/>
+    <col min="67" max="67" width="9.6640625" customWidth="1"/>
     <col min="68" max="68" width="9" customWidth="1"/>
-    <col min="69" max="69" width="8.7109375" customWidth="1"/>
+    <col min="69" max="69" width="8.6640625" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="80" width="9.7109375" customWidth="1"/>
+    <col min="71" max="80" width="9.6640625" customWidth="1"/>
     <col min="81" max="81" width="10" customWidth="1"/>
     <col min="82" max="82" width="9" customWidth="1"/>
     <col min="83" max="83" width="11" customWidth="1"/>
     <col min="84" max="84" width="9" customWidth="1"/>
-    <col min="85" max="93" width="9.7109375" customWidth="1"/>
+    <col min="85" max="93" width="9.6640625" customWidth="1"/>
     <col min="94" max="95" width="9" customWidth="1"/>
-    <col min="96" max="96" width="8.7109375" customWidth="1"/>
-    <col min="97" max="98" width="9.7109375" customWidth="1"/>
+    <col min="96" max="96" width="8.6640625" customWidth="1"/>
+    <col min="97" max="98" width="9.6640625" customWidth="1"/>
     <col min="99" max="99" width="10" customWidth="1"/>
-    <col min="100" max="104" width="9.7109375" customWidth="1"/>
+    <col min="100" max="104" width="9.6640625" customWidth="1"/>
     <col min="105" max="108" width="9" customWidth="1"/>
     <col min="109" max="109" width="10" customWidth="1"/>
-    <col min="110" max="117" width="9.7109375" customWidth="1"/>
+    <col min="110" max="117" width="9.6640625" customWidth="1"/>
     <col min="118" max="118" width="10" customWidth="1"/>
-    <col min="119" max="120" width="9.7109375" customWidth="1"/>
-    <col min="121" max="129" width="10.7109375" customWidth="1"/>
+    <col min="119" max="120" width="9.6640625" customWidth="1"/>
+    <col min="121" max="129" width="10.6640625" customWidth="1"/>
     <col min="130" max="130" width="12" customWidth="1"/>
-    <col min="131" max="131" width="10.7109375" customWidth="1"/>
-    <col min="132" max="134" width="9.7109375" customWidth="1"/>
+    <col min="131" max="131" width="10.6640625" customWidth="1"/>
+    <col min="132" max="134" width="9.6640625" customWidth="1"/>
     <col min="135" max="135" width="10" customWidth="1"/>
-    <col min="136" max="142" width="10.7109375" customWidth="1"/>
+    <col min="136" max="142" width="10.6640625" customWidth="1"/>
     <col min="143" max="143" width="12" customWidth="1"/>
-    <col min="144" max="144" width="9.7109375" customWidth="1"/>
-    <col min="145" max="148" width="10.7109375" customWidth="1"/>
+    <col min="144" max="144" width="9.6640625" customWidth="1"/>
+    <col min="145" max="148" width="10.6640625" customWidth="1"/>
     <col min="149" max="149" width="12" customWidth="1"/>
-    <col min="150" max="152" width="10.7109375" customWidth="1"/>
+    <col min="150" max="152" width="10.6640625" customWidth="1"/>
     <col min="153" max="153" width="9" customWidth="1"/>
-    <col min="154" max="154" width="8.7109375" customWidth="1"/>
+    <col min="154" max="154" width="8.6640625" customWidth="1"/>
     <col min="155" max="155" width="10" customWidth="1"/>
     <col min="156" max="156" width="9" customWidth="1"/>
     <col min="157" max="157" width="10" customWidth="1"/>
-    <col min="158" max="162" width="9.7109375" customWidth="1"/>
+    <col min="158" max="162" width="9.6640625" customWidth="1"/>
     <col min="163" max="164" width="10" customWidth="1"/>
-    <col min="165" max="166" width="9.7109375" customWidth="1"/>
+    <col min="165" max="166" width="9.6640625" customWidth="1"/>
     <col min="167" max="172" width="9" customWidth="1"/>
-    <col min="173" max="183" width="9.7109375" customWidth="1"/>
+    <col min="173" max="183" width="9.6640625" customWidth="1"/>
     <col min="184" max="185" width="10" customWidth="1"/>
     <col min="186" max="188" width="9" customWidth="1"/>
     <col min="189" max="189" width="10" customWidth="1"/>
-    <col min="190" max="193" width="9.7109375" customWidth="1"/>
+    <col min="190" max="193" width="9.6640625" customWidth="1"/>
     <col min="194" max="194" width="12" customWidth="1"/>
-    <col min="195" max="195" width="9.7109375" customWidth="1"/>
+    <col min="195" max="195" width="9.6640625" customWidth="1"/>
     <col min="196" max="196" width="10" customWidth="1"/>
     <col min="197" max="197" width="9" customWidth="1"/>
     <col min="198" max="198" width="10" customWidth="1"/>
-    <col min="199" max="206" width="9.7109375" customWidth="1"/>
+    <col min="199" max="206" width="9.6640625" customWidth="1"/>
     <col min="207" max="207" width="10" customWidth="1"/>
     <col min="208" max="209" width="9" customWidth="1"/>
     <col min="210" max="210" width="10" customWidth="1"/>
-    <col min="211" max="212" width="9.7109375" customWidth="1"/>
+    <col min="211" max="212" width="9.6640625" customWidth="1"/>
     <col min="213" max="213" width="10" customWidth="1"/>
-    <col min="214" max="218" width="9.7109375" customWidth="1"/>
+    <col min="214" max="218" width="9.6640625" customWidth="1"/>
     <col min="219" max="219" width="10" customWidth="1"/>
     <col min="220" max="224" width="9" customWidth="1"/>
-    <col min="225" max="227" width="9.7109375" customWidth="1"/>
-    <col min="228" max="231" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="9.6640625" customWidth="1"/>
+    <col min="228" max="231" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="10" bestFit="1" customWidth="1"/>
-    <col min="233" max="235" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="235" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" customWidth="1"/>
     <col min="237" max="239" width="9" customWidth="1"/>
     <col min="240" max="241" width="10" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="10" bestFit="1" customWidth="1"/>
     <col min="251" max="252" width="9" customWidth="1"/>
     <col min="253" max="253" width="10" customWidth="1"/>
-    <col min="254" max="255" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="10" bestFit="1" customWidth="1"/>
-    <col min="257" max="263" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="257" max="263" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="10" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.7109375" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" customWidth="1"/>
     <col min="266" max="266" width="10" customWidth="1"/>
-    <col min="267" max="269" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="267" max="269" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="275" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="271" max="275" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="276" max="276" width="10" bestFit="1" customWidth="1"/>
-    <col min="277" max="278" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="277" max="278" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="12" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="282" max="282" width="12" bestFit="1" customWidth="1"/>
-    <col min="283" max="286" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="287" max="290" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="291" max="298" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="283" max="286" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="287" max="290" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="291" max="298" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10" bestFit="1" customWidth="1"/>
-    <col min="301" max="304" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="305" max="312" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="8.7109375" customWidth="1"/>
+    <col min="301" max="304" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="305" max="312" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="8.6640625" customWidth="1"/>
     <col min="314" max="315" width="9" customWidth="1"/>
     <col min="316" max="316" width="12" customWidth="1"/>
     <col min="317" max="317" width="9" customWidth="1"/>
-    <col min="318" max="327" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="318" max="327" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="328" max="330" width="9" customWidth="1"/>
-    <col min="331" max="331" width="8.7109375" customWidth="1"/>
+    <col min="331" max="331" width="8.6640625" customWidth="1"/>
     <col min="332" max="332" width="9" customWidth="1"/>
-    <col min="333" max="340" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="333" max="340" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="341" max="341" width="10" customWidth="1"/>
-    <col min="342" max="342" width="8.7109375" customWidth="1"/>
-    <col min="343" max="343" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="8.6640625" customWidth="1"/>
+    <col min="343" max="343" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="344" max="344" width="10" bestFit="1" customWidth="1"/>
-    <col min="345" max="352" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="345" max="352" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="353" max="355" width="9" customWidth="1"/>
-    <col min="356" max="362" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="356" max="362" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="363" max="363" width="9" customWidth="1"/>
-    <col min="364" max="364" width="8.7109375" customWidth="1"/>
+    <col min="364" max="364" width="8.6640625" customWidth="1"/>
     <col min="365" max="365" width="10" customWidth="1"/>
     <col min="366" max="366" width="9" customWidth="1"/>
-    <col min="367" max="375" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="367" max="375" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="376" max="376" width="10" customWidth="1"/>
-    <col min="377" max="384" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="377" max="384" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="385" max="385" width="9" customWidth="1"/>
     <col min="386" max="386" width="10" customWidth="1"/>
     <col min="387" max="388" width="9" customWidth="1"/>
-    <col min="389" max="390" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="389" max="390" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="391" max="391" width="10" bestFit="1" customWidth="1"/>
-    <col min="392" max="400" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="392" max="400" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="401" max="407" width="9" customWidth="1"/>
-    <col min="408" max="419" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="408" max="419" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="420" max="425" width="9" customWidth="1"/>
-    <col min="426" max="429" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="426" max="429" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="430" max="431" width="10" bestFit="1" customWidth="1"/>
-    <col min="432" max="434" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="432" max="434" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="435" max="435" width="10" bestFit="1" customWidth="1"/>
-    <col min="436" max="437" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="436" max="437" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="438" max="438" width="10" bestFit="1" customWidth="1"/>
-    <col min="439" max="440" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="441" max="450" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="451" max="453" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="454" max="478" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="439" max="440" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="441" max="450" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="451" max="453" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="454" max="478" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="479" max="479" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
